--- a/data/trans_orig/P14B20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B45D68B-F48B-484E-A9AD-D56AAB9ED11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85833C76-107F-4ABA-A490-0ADAA0ABD5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFA198DD-426F-46DE-A172-443DD2E783E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{684B16C2-A7BC-4D2D-80EF-5EC06D551E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>34,65%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
   <si>
     <t>49,95%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>65,35%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>50,05%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>54,63%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,19 +147,19 @@
     <t>56,16%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>41,79%</t>
@@ -174,19 +174,19 @@
     <t>43,84%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,7 +207,7 @@
     <t>27,15%</t>
   </si>
   <si>
-    <t>70,29%</t>
+    <t>69,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -222,61 +222,61 @@
     <t>72,85%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -288,103 +288,103 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>48,1%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>51,9%</t>
+    <t>53,37%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -408,16 +408,16 @@
     <t>28,84%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>51,3%</t>
@@ -426,19 +426,19 @@
     <t>31,68%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>66,26%</t>
@@ -447,16 +447,16 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A22CED-E270-4A57-BFAF-1E026E936295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C359D7-F218-43F1-A37A-DBCF134F0A4A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FA3E3C-E9A4-4CBF-97F9-FD941C4466B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771A3EF-6A74-4836-B1EF-D22D5F045662}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85833C76-107F-4ABA-A490-0ADAA0ABD5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCA49E80-EF90-47CA-A6E7-A68E423E1EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{684B16C2-A7BC-4D2D-80EF-5EC06D551E7A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E436C68A-C53D-4469-A396-27AF93E58A33}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>Población cuyas hemorroides le limita en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>34,65%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
   </si>
   <si>
     <t>49,95%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>65,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>50,05%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>54,63%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>58,21%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>41,79%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -207,7 +207,7 @@
     <t>27,15%</t>
   </si>
   <si>
-    <t>69,75%</t>
+    <t>70,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -222,169 +222,175 @@
     <t>72,85%</t>
   </si>
   <si>
-    <t>30,25%</t>
+    <t>30,0%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población cuyas hemorroides le limita en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>63,83%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>42,14%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>46,63%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>53,37%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -408,55 +414,55 @@
     <t>28,84%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C359D7-F218-43F1-A37A-DBCF134F0A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB6E099-21E2-495F-BDE3-2A2A867AC7AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1619,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771A3EF-6A74-4836-B1EF-D22D5F045662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C2B52C-CD17-4731-B912-86247608CC6B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,10 +1907,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1913,13 +1919,13 @@
         <v>7656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -1928,13 +1934,13 @@
         <v>10612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1955,13 @@
         <v>11982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -1964,13 +1970,13 @@
         <v>15736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -1979,13 +1985,13 @@
         <v>27718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2065,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2074,7 +2080,7 @@
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2089,7 +2095,7 @@
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2122,7 +2128,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2137,7 +2143,7 @@
         <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -2208,13 +2214,13 @@
         <v>9672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2223,13 +2229,13 @@
         <v>15505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2238,13 +2244,13 @@
         <v>25177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2265,13 @@
         <v>23861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2274,13 +2280,13 @@
         <v>30445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -2289,13 +2295,13 @@
         <v>54306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
